--- a/content/posts/06_2022_yks_puan_hesaplama2/hukukNetlerW.xlsx
+++ b/content/posts/06_2022_yks_puan_hesaplama2/hukukNetlerW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRSA\D3\content\posts\06_2022_yks_puan_hesaplama2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9030CD-4F87-4FCF-B37F-0C011F138B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D26B98-0D9A-418C-AD8A-E348658EA765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2610" windowWidth="18000" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -755,10 +755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +815,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>203910796</v>
       </c>
@@ -861,7 +862,7 @@
         <v>513.45892000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>104010052</v>
       </c>
@@ -905,7 +906,7 @@
         <v>547.87341000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>202111106</v>
       </c>
@@ -952,7 +953,7 @@
         <v>505.97131999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>205410283</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>510.89197999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105690587</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>496.47080999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>206111969</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>482.33445</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>204810228</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>468.90025000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>202111115</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>469.60278</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>101110518</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>492.19761999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>200511568</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>458.52854000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>105610501</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>499.83607000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>202510167</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>441.58634999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>104810759</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>435.48088000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>202910736</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>418.45274000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>105630092</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>414.70060000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>107210332</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>456.05648000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>208610015</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>402.98761000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200611328</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>443.66174000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>107230027</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>400.49650000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>109610013</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>452.86943000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>111710412</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>410.83229999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>207210331</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>414.11970000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>203710083</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>403.43499000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>103110309</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>433.07190000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>110010023</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>406.85838000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>203110211</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>467.47924999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>201110086</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>457.44407999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>101010255</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>419.34627</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>203010187</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>430.14400999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>105410115</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>393.41250000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>110910096</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>407.52172000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>100710145</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>447.41028</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>204111948</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>392.35108000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>205410362</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>458.24137000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>202210338</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>394.64479</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>103890226</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>385.86324999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>203410086</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>396.90757000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>206010487</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>397.65314999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200710771</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>462.39945999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>203210731</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>431.03273999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>109710215</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>412.22492999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>209210059</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>386.21177</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>200210582</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>390.34192000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>108910401</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>408.91543000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>208610115</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>376.52884999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>205810085</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>372.68293999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>204950395</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>382.68840999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>202410502</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>384.45621</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>111110062</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>388.57494000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>102910482</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>434.56333000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201790218</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>373.26083999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>206410660</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>380.20420999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>106910179</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>449.60604999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>112910024</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>382.03634</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>101590157</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>471.32601</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>103510235</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>442.94290999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>100190208</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>387.22784999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>204711051</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>386.23590000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201410295</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>377.73478</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>108210841</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>398.94783000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>209510039</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>381.43912</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>108690097</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>421.07976000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>202111124</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>435.05874999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201010245</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>385.40278000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>206210634</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>364.79919000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201210588</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>386.1499</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>106610146</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>385.41359</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>108810774</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>416.71722999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201610424</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>435.64562999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>104390160</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>394.32603</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>206111978</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>448.19067999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>101410206</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>453.55932999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>204010024</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>399.56864999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>104210456</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>443.11475000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>202910287</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>377.99524000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>105310461</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>410.5899</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>300110334</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>375.55498</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>200690533</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>387.16379000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>204950398</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>365.82747000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>107990101</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>421.46075000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>107010767</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>398.19445000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>109910091</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>406.72744</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>203910787</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>459.07745999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>300311357</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>355.68284999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>103010134</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>425.58996000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>109210759</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>399.62419</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>102890076</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>373.19078000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>108930211</v>
       </c>
@@ -4877,7 +4878,7 @@
         <v>434.52262000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>101430564</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>365.48991999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>203410377</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>369.01272</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>100410836</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>399.43524000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>204010033</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>350.89485999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>201110695</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>374.75133</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>110910122</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>357.44556999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>103610085</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>410.56015000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>112110777</v>
       </c>
@@ -5241,7 +5242,7 @@
         <v>411.83722</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>300390252</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>350.3818</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>204190427</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>366.13378</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>107030286</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>362.63423999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>300510312</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>364.34643</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>106770724</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>403.40719000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>108790055</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>416.56691999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>201790259</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>356.84321</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106630247</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>373.76396</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202511102</v>
       </c>
@@ -5652,7 +5653,7 @@
         <v>401.05270000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>300211843</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>356.34942999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>209210060</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>358.66771</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>300410588</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>349.72154</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>209210058</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>337.20253000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>200710983</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>372.06583000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>202210339</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>370.32411999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>300710222</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>351.72269</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>205850556</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>359.12387999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>300810221</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>342.68056999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>203090173</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>374.07839999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>300310905</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>341.76573000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>201210782</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>357.82587000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>205410265</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>372.15622999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>301410027</v>
       </c>
@@ -6357,7 +6358,7 @@
         <v>344.58774</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>301390049</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>350.87588</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>206111951</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>348.52134999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>203210758</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>370.57141999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>200290164</v>
       </c>
@@ -6545,7 +6546,7 @@
         <v>355.43765999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>300410579</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>319.99324000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>201410462</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>365.7921</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>200790489</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>327.45211</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>206410650</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>361.03816</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>203010178</v>
       </c>
@@ -6780,7 +6781,7 @@
         <v>324.98347000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>203111193</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>326.3501</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>201010254</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>355.22778</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>203110256</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>373.87988000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>206011158</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>368.80052999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>201210604</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>336.51170999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>205810076</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>318.22591999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>207210358</v>
       </c>
@@ -7109,7 +7110,7 @@
         <v>373.81592000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>204810219</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>418.78818000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>200511717</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>380.17003999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>201650184</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>352.50677000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>202410511</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>348.07567</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>201790217</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>323.29771</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>109610049</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>381.68524000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>300212259</v>
       </c>
@@ -7435,7 +7436,7 @@
         <v>333.74979999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>201410286</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>319.51925</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>204950396</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>346.80896000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>202910781</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>349.39220999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>203710708</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>381.91032999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>203710074</v>
       </c>
@@ -7670,7 +7671,7 @@
         <v>331.47939000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>200610278</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>346.37342999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>202910799</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>361.42223999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>200511559</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>412.52458999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>300710655</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>318.23748000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>301390050</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>332.38389999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>300850195</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>339.47091</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>300211094</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>313.63949000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>203410077</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>340.86075</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>300513148</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>344.40926999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>300410773</v>
       </c>
@@ -8140,7 +8141,7 @@
         <v>335.60764</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>300110325</v>
       </c>
@@ -8187,7 +8188,7 @@
         <v>340.18207999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>204010015</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>340.65125999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>206010503</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>323.81249000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>201610415</v>
       </c>
@@ -8328,7 +8329,7 @@
         <v>322.15341000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>201110077</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>337.19904000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>300190423</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>341.56317000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>200210573</v>
       </c>
@@ -8469,7 +8470,7 @@
         <v>323.14922000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>204711069</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>348.09014999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>110910123</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>341.90352000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>206290205</v>
       </c>
@@ -8612,6 +8613,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O170" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="İZMİR EKONOMİ ÜNİVERSİTESİ"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O170">
       <sortCondition descending="1" ref="N1:N170"/>
     </sortState>

--- a/content/posts/06_2022_yks_puan_hesaplama2/hukukNetlerW.xlsx
+++ b/content/posts/06_2022_yks_puan_hesaplama2/hukukNetlerW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRSA\D3\content\posts\06_2022_yks_puan_hesaplama2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D26B98-0D9A-418C-AD8A-E348658EA765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275F0D7A-665A-47AD-A377-4322A8B975D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2610" windowWidth="18000" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="112">
   <si>
     <t>Code</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Kont</t>
+  </si>
+  <si>
+    <t>Yer</t>
   </si>
 </sst>
 </file>
@@ -755,11 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O170"/>
+  <dimension ref="A1:Q170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +773,7 @@
     <col min="11" max="11" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,8 +819,14 @@
       <c r="O1" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>203910796</v>
       </c>
@@ -861,8 +872,14 @@
       <c r="O2">
         <v>513.45892000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>19</v>
+      </c>
+      <c r="Q2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>104010052</v>
       </c>
@@ -905,8 +922,14 @@
       <c r="O3">
         <v>547.87341000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>25</v>
+      </c>
+      <c r="Q3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>202111106</v>
       </c>
@@ -952,8 +975,14 @@
       <c r="O4">
         <v>505.97131999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>205410283</v>
       </c>
@@ -999,8 +1028,14 @@
       <c r="O5">
         <v>510.89197999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105690587</v>
       </c>
@@ -1046,8 +1081,14 @@
       <c r="O6">
         <v>496.47080999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>206111969</v>
       </c>
@@ -1093,8 +1134,14 @@
       <c r="O7">
         <v>482.33445</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>16</v>
+      </c>
+      <c r="Q7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>204810228</v>
       </c>
@@ -1140,8 +1187,14 @@
       <c r="O8">
         <v>468.90025000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>28</v>
+      </c>
+      <c r="Q8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>202111115</v>
       </c>
@@ -1187,8 +1240,14 @@
       <c r="O9">
         <v>469.60278</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>16</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>101110518</v>
       </c>
@@ -1231,8 +1290,14 @@
       <c r="O10">
         <v>492.19761999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>550</v>
+      </c>
+      <c r="Q10">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>200511568</v>
       </c>
@@ -1278,8 +1343,14 @@
       <c r="O11">
         <v>458.52854000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>22</v>
+      </c>
+      <c r="Q11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>105610501</v>
       </c>
@@ -1322,8 +1393,14 @@
       <c r="O12">
         <v>499.83607000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>480</v>
+      </c>
+      <c r="Q12">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>202510167</v>
       </c>
@@ -1369,8 +1446,14 @@
       <c r="O13">
         <v>441.58634999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>104810759</v>
       </c>
@@ -1413,8 +1496,14 @@
       <c r="O14">
         <v>435.48088000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>240</v>
+      </c>
+      <c r="Q14">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>202910736</v>
       </c>
@@ -1460,8 +1549,14 @@
       <c r="O15">
         <v>418.45274000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>105630092</v>
       </c>
@@ -1504,8 +1599,14 @@
       <c r="O16">
         <v>414.70060000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>340</v>
+      </c>
+      <c r="Q16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>107210332</v>
       </c>
@@ -1548,8 +1649,14 @@
       <c r="O17">
         <v>456.05648000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>340</v>
+      </c>
+      <c r="Q17">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>208610015</v>
       </c>
@@ -1595,8 +1702,14 @@
       <c r="O18">
         <v>402.98761000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200611328</v>
       </c>
@@ -1642,8 +1755,14 @@
       <c r="O19">
         <v>443.66174000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>23</v>
+      </c>
+      <c r="Q19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>107230027</v>
       </c>
@@ -1686,8 +1805,14 @@
       <c r="O20">
         <v>400.49650000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>320</v>
+      </c>
+      <c r="Q20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>109610013</v>
       </c>
@@ -1730,8 +1855,14 @@
       <c r="O21">
         <v>452.86943000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>111710412</v>
       </c>
@@ -1774,8 +1905,14 @@
       <c r="O22">
         <v>410.83229999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>420</v>
+      </c>
+      <c r="Q22">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>207210331</v>
       </c>
@@ -1821,8 +1958,14 @@
       <c r="O23">
         <v>414.11970000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>203710083</v>
       </c>
@@ -1868,8 +2011,14 @@
       <c r="O24">
         <v>403.43499000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>103110309</v>
       </c>
@@ -1912,8 +2061,14 @@
       <c r="O25">
         <v>433.07190000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>460</v>
+      </c>
+      <c r="Q25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>110010023</v>
       </c>
@@ -1956,8 +2111,14 @@
       <c r="O26">
         <v>406.85838000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>220</v>
+      </c>
+      <c r="Q26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>203110211</v>
       </c>
@@ -2003,8 +2164,14 @@
       <c r="O27">
         <v>467.47924999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>29</v>
+      </c>
+      <c r="Q27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>201110086</v>
       </c>
@@ -2050,8 +2217,14 @@
       <c r="O28">
         <v>457.44407999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>23</v>
+      </c>
+      <c r="Q28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>101010255</v>
       </c>
@@ -2094,8 +2267,14 @@
       <c r="O29">
         <v>419.34627</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>355</v>
+      </c>
+      <c r="Q29">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>203010187</v>
       </c>
@@ -2141,8 +2320,14 @@
       <c r="O30">
         <v>430.14400999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>21</v>
+      </c>
+      <c r="Q30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>105410115</v>
       </c>
@@ -2185,8 +2370,14 @@
       <c r="O31">
         <v>393.41250000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>180</v>
+      </c>
+      <c r="Q31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>110910096</v>
       </c>
@@ -2229,8 +2420,14 @@
       <c r="O32">
         <v>407.61995000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>150</v>
+      </c>
+      <c r="Q32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>203510791</v>
       </c>
@@ -2276,8 +2473,14 @@
       <c r="O33">
         <v>407.52172000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>25</v>
+      </c>
+      <c r="Q33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>100710145</v>
       </c>
@@ -2320,8 +2523,14 @@
       <c r="O34">
         <v>447.41028</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>250</v>
+      </c>
+      <c r="Q34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>204111948</v>
       </c>
@@ -2367,8 +2576,14 @@
       <c r="O35">
         <v>392.35108000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>13</v>
+      </c>
+      <c r="Q35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>205410362</v>
       </c>
@@ -2414,8 +2629,14 @@
       <c r="O36">
         <v>458.24137000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>23</v>
+      </c>
+      <c r="Q36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>202210338</v>
       </c>
@@ -2461,8 +2682,14 @@
       <c r="O37">
         <v>394.64479</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>19</v>
+      </c>
+      <c r="Q37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>103890226</v>
       </c>
@@ -2505,8 +2732,14 @@
       <c r="O38">
         <v>385.86324999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>60</v>
+      </c>
+      <c r="Q38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>203410086</v>
       </c>
@@ -2552,8 +2785,14 @@
       <c r="O39">
         <v>396.90757000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>29</v>
+      </c>
+      <c r="Q39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>206010487</v>
       </c>
@@ -2599,8 +2838,14 @@
       <c r="O40">
         <v>397.65314999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>19</v>
+      </c>
+      <c r="Q40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200710771</v>
       </c>
@@ -2646,8 +2891,14 @@
       <c r="O41">
         <v>462.39945999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>18</v>
+      </c>
+      <c r="Q41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>203210731</v>
       </c>
@@ -2693,8 +2944,14 @@
       <c r="O42">
         <v>431.03273999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>28</v>
+      </c>
+      <c r="Q42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>109710215</v>
       </c>
@@ -2737,8 +2994,14 @@
       <c r="O43">
         <v>412.22492999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>240</v>
+      </c>
+      <c r="Q43">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>209210059</v>
       </c>
@@ -2784,8 +3047,14 @@
       <c r="O44">
         <v>386.21177</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>19</v>
+      </c>
+      <c r="Q44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>200210582</v>
       </c>
@@ -2831,8 +3100,14 @@
       <c r="O45">
         <v>390.34192000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>29</v>
+      </c>
+      <c r="Q45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>108910401</v>
       </c>
@@ -2875,8 +3150,14 @@
       <c r="O46">
         <v>408.91543000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>250</v>
+      </c>
+      <c r="Q46">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>208610115</v>
       </c>
@@ -2922,8 +3203,14 @@
       <c r="O47">
         <v>376.52884999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>30</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>205810085</v>
       </c>
@@ -2969,8 +3256,14 @@
       <c r="O48">
         <v>372.68293999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>14</v>
+      </c>
+      <c r="Q48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>204950395</v>
       </c>
@@ -3016,8 +3309,14 @@
       <c r="O49">
         <v>382.68840999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>202410502</v>
       </c>
@@ -3063,8 +3362,14 @@
       <c r="O50">
         <v>384.45621</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>29</v>
+      </c>
+      <c r="Q50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>111110062</v>
       </c>
@@ -3107,8 +3412,14 @@
       <c r="O51">
         <v>388.57494000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>120</v>
+      </c>
+      <c r="Q51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>102910482</v>
       </c>
@@ -3151,8 +3462,14 @@
       <c r="O52">
         <v>434.56333000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>190</v>
+      </c>
+      <c r="Q52">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201790218</v>
       </c>
@@ -3198,8 +3515,14 @@
       <c r="O53">
         <v>373.26083999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>9</v>
+      </c>
+      <c r="Q53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>206410660</v>
       </c>
@@ -3245,8 +3568,14 @@
       <c r="O54">
         <v>380.20420999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>19</v>
+      </c>
+      <c r="Q54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>106910179</v>
       </c>
@@ -3289,8 +3618,14 @@
       <c r="O55">
         <v>449.60604999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>280</v>
+      </c>
+      <c r="Q55">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>112910024</v>
       </c>
@@ -3333,8 +3668,14 @@
       <c r="O56">
         <v>382.03634</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>150</v>
+      </c>
+      <c r="Q56">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>101590157</v>
       </c>
@@ -3377,8 +3718,14 @@
       <c r="O57">
         <v>471.32601</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>60</v>
+      </c>
+      <c r="Q57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>103510235</v>
       </c>
@@ -3421,8 +3768,14 @@
       <c r="O58">
         <v>442.94290999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>230</v>
+      </c>
+      <c r="Q58">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>100190208</v>
       </c>
@@ -3465,8 +3818,14 @@
       <c r="O59">
         <v>387.22784999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>60</v>
+      </c>
+      <c r="Q59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>204711051</v>
       </c>
@@ -3512,8 +3871,14 @@
       <c r="O60">
         <v>386.23590000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>16</v>
+      </c>
+      <c r="Q60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201410295</v>
       </c>
@@ -3559,8 +3924,14 @@
       <c r="O61">
         <v>377.73478</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>29</v>
+      </c>
+      <c r="Q61">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>108210841</v>
       </c>
@@ -3603,8 +3974,14 @@
       <c r="O62">
         <v>398.94783000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>130</v>
+      </c>
+      <c r="Q62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>209510039</v>
       </c>
@@ -3650,8 +4027,14 @@
       <c r="O63">
         <v>381.43912</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>55</v>
+      </c>
+      <c r="Q63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>108690097</v>
       </c>
@@ -3694,8 +4077,14 @@
       <c r="O64">
         <v>421.07976000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>130</v>
+      </c>
+      <c r="Q64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>202111124</v>
       </c>
@@ -3741,8 +4130,14 @@
       <c r="O65">
         <v>435.05874999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>123</v>
+      </c>
+      <c r="Q65">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201010245</v>
       </c>
@@ -3788,8 +4183,14 @@
       <c r="O66">
         <v>385.40278000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>29</v>
+      </c>
+      <c r="Q66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>206210634</v>
       </c>
@@ -3835,8 +4236,14 @@
       <c r="O67">
         <v>364.79919000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>11</v>
+      </c>
+      <c r="Q67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201210588</v>
       </c>
@@ -3882,8 +4289,14 @@
       <c r="O68">
         <v>386.1499</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>17</v>
+      </c>
+      <c r="Q68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>106610146</v>
       </c>
@@ -3926,8 +4339,14 @@
       <c r="O69">
         <v>385.41359</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>200</v>
+      </c>
+      <c r="Q69">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>108810774</v>
       </c>
@@ -3970,8 +4389,14 @@
       <c r="O70">
         <v>416.71722999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>240</v>
+      </c>
+      <c r="Q70">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201610424</v>
       </c>
@@ -4017,8 +4442,14 @@
       <c r="O71">
         <v>435.64562999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>30</v>
+      </c>
+      <c r="Q71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>104390160</v>
       </c>
@@ -4061,8 +4492,14 @@
       <c r="O72">
         <v>394.32603</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>80</v>
+      </c>
+      <c r="Q72">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>206111978</v>
       </c>
@@ -4108,8 +4545,14 @@
       <c r="O73">
         <v>448.19067999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>73</v>
+      </c>
+      <c r="Q73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>101410206</v>
       </c>
@@ -4152,8 +4595,14 @@
       <c r="O74">
         <v>453.55932999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>180</v>
+      </c>
+      <c r="Q74">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>204010024</v>
       </c>
@@ -4199,8 +4648,14 @@
       <c r="O75">
         <v>399.56864999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>25</v>
+      </c>
+      <c r="Q75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>104210456</v>
       </c>
@@ -4243,8 +4698,14 @@
       <c r="O76">
         <v>443.11475000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>190</v>
+      </c>
+      <c r="Q76">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>202910287</v>
       </c>
@@ -4290,8 +4751,14 @@
       <c r="O77">
         <v>377.99524000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>56</v>
+      </c>
+      <c r="Q77">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>105310461</v>
       </c>
@@ -4334,8 +4801,14 @@
       <c r="O78">
         <v>410.5899</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>200</v>
+      </c>
+      <c r="Q78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>300110334</v>
       </c>
@@ -4381,8 +4854,14 @@
       <c r="O79">
         <v>375.55498</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>20</v>
+      </c>
+      <c r="Q79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>200690533</v>
       </c>
@@ -4428,8 +4907,14 @@
       <c r="O80">
         <v>387.16379000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>60</v>
+      </c>
+      <c r="Q80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>204950398</v>
       </c>
@@ -4475,8 +4960,14 @@
       <c r="O81">
         <v>365.82747000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>50</v>
+      </c>
+      <c r="Q81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>107990101</v>
       </c>
@@ -4519,8 +5010,14 @@
       <c r="O82">
         <v>421.46075000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>120</v>
+      </c>
+      <c r="Q82">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>107010767</v>
       </c>
@@ -4563,8 +5060,14 @@
       <c r="O83">
         <v>398.19445000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>120</v>
+      </c>
+      <c r="Q83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>109910091</v>
       </c>
@@ -4607,8 +5110,14 @@
       <c r="O84">
         <v>406.72744</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>240</v>
+      </c>
+      <c r="Q84">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>203910787</v>
       </c>
@@ -4654,8 +5163,14 @@
       <c r="O85">
         <v>459.07745999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>110</v>
+      </c>
+      <c r="Q85">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>300311357</v>
       </c>
@@ -4701,8 +5216,14 @@
       <c r="O86">
         <v>355.68284999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <v>20</v>
+      </c>
+      <c r="Q86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>103010134</v>
       </c>
@@ -4745,8 +5266,14 @@
       <c r="O87">
         <v>425.58996000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <v>280</v>
+      </c>
+      <c r="Q87">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>109210759</v>
       </c>
@@ -4789,8 +5316,14 @@
       <c r="O88">
         <v>399.62419</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <v>220</v>
+      </c>
+      <c r="Q88">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>102890076</v>
       </c>
@@ -4833,8 +5366,14 @@
       <c r="O89">
         <v>373.19078000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <v>200</v>
+      </c>
+      <c r="Q89">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>108930211</v>
       </c>
@@ -4877,8 +5416,14 @@
       <c r="O90">
         <v>434.52262000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P90">
+        <v>230</v>
+      </c>
+      <c r="Q90">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>101430564</v>
       </c>
@@ -4921,8 +5466,14 @@
       <c r="O91">
         <v>365.48991999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <v>110</v>
+      </c>
+      <c r="Q91">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>203410377</v>
       </c>
@@ -4968,8 +5519,14 @@
       <c r="O92">
         <v>369.01272</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <v>80</v>
+      </c>
+      <c r="Q92">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>100410836</v>
       </c>
@@ -5012,8 +5569,14 @@
       <c r="O93">
         <v>399.43524000000002</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <v>140</v>
+      </c>
+      <c r="Q93">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>204010033</v>
       </c>
@@ -5059,8 +5622,14 @@
       <c r="O94">
         <v>350.89485999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <v>12</v>
+      </c>
+      <c r="Q94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>201110695</v>
       </c>
@@ -5106,8 +5675,14 @@
       <c r="O95">
         <v>374.75133</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>62</v>
+      </c>
+      <c r="Q95">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>110910122</v>
       </c>
@@ -5153,8 +5728,14 @@
       <c r="O96">
         <v>357.44556999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <v>10</v>
+      </c>
+      <c r="Q96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>103610085</v>
       </c>
@@ -5197,8 +5778,14 @@
       <c r="O97">
         <v>410.56015000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P97">
+        <v>300</v>
+      </c>
+      <c r="Q97">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>112110777</v>
       </c>
@@ -5241,8 +5828,14 @@
       <c r="O98">
         <v>411.83722</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <v>220</v>
+      </c>
+      <c r="Q98">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>300390252</v>
       </c>
@@ -5288,8 +5881,14 @@
       <c r="O99">
         <v>350.3818</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P99">
+        <v>23</v>
+      </c>
+      <c r="Q99">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>204190427</v>
       </c>
@@ -5335,8 +5934,14 @@
       <c r="O100">
         <v>366.13378</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <v>76</v>
+      </c>
+      <c r="Q100">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>107030286</v>
       </c>
@@ -5379,8 +5984,14 @@
       <c r="O101">
         <v>362.63423999999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P101">
+        <v>80</v>
+      </c>
+      <c r="Q101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>300510312</v>
       </c>
@@ -5426,8 +6037,14 @@
       <c r="O102">
         <v>364.34643</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <v>20</v>
+      </c>
+      <c r="Q102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>106770724</v>
       </c>
@@ -5470,8 +6087,14 @@
       <c r="O103">
         <v>403.40719000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P103">
+        <v>120</v>
+      </c>
+      <c r="Q103">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>108790055</v>
       </c>
@@ -5514,8 +6137,14 @@
       <c r="O104">
         <v>416.56691999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P104">
+        <v>90</v>
+      </c>
+      <c r="Q104">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>201790259</v>
       </c>
@@ -5561,8 +6190,14 @@
       <c r="O105">
         <v>356.84321</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>35</v>
+      </c>
+      <c r="Q105">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106630247</v>
       </c>
@@ -5605,8 +6240,14 @@
       <c r="O106">
         <v>373.76396</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P106">
+        <v>180</v>
+      </c>
+      <c r="Q106">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202511102</v>
       </c>
@@ -5652,8 +6293,14 @@
       <c r="O107">
         <v>401.05270000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <v>128</v>
+      </c>
+      <c r="Q107">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>300211843</v>
       </c>
@@ -5699,8 +6346,14 @@
       <c r="O108">
         <v>356.34942999999998</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P108">
+        <v>20</v>
+      </c>
+      <c r="Q108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>209210060</v>
       </c>
@@ -5746,8 +6399,14 @@
       <c r="O109">
         <v>358.66771</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P109">
+        <v>100</v>
+      </c>
+      <c r="Q109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>300410588</v>
       </c>
@@ -5793,8 +6452,14 @@
       <c r="O110">
         <v>349.72154</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P110">
+        <v>16</v>
+      </c>
+      <c r="Q110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>209210058</v>
       </c>
@@ -5840,8 +6505,14 @@
       <c r="O111">
         <v>337.20253000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P111">
+        <v>6</v>
+      </c>
+      <c r="Q111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>200710983</v>
       </c>
@@ -5887,8 +6558,14 @@
       <c r="O112">
         <v>363.96017000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112">
+        <v>80</v>
+      </c>
+      <c r="Q112">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>203510807</v>
       </c>
@@ -5934,8 +6611,14 @@
       <c r="O113">
         <v>372.06583000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P113">
+        <v>144</v>
+      </c>
+      <c r="Q113">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>202210339</v>
       </c>
@@ -5981,8 +6664,14 @@
       <c r="O114">
         <v>370.32411999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P114">
+        <v>106</v>
+      </c>
+      <c r="Q114">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>300710222</v>
       </c>
@@ -6028,8 +6717,14 @@
       <c r="O115">
         <v>351.72269</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P115">
+        <v>8</v>
+      </c>
+      <c r="Q115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>205850556</v>
       </c>
@@ -6075,8 +6770,14 @@
       <c r="O116">
         <v>359.12387999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P116">
+        <v>79</v>
+      </c>
+      <c r="Q116">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>300810221</v>
       </c>
@@ -6122,8 +6823,14 @@
       <c r="O117">
         <v>342.68056999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P117">
+        <v>14</v>
+      </c>
+      <c r="Q117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>203090173</v>
       </c>
@@ -6169,8 +6876,14 @@
       <c r="O118">
         <v>374.07839999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P118">
+        <v>112</v>
+      </c>
+      <c r="Q118">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>300310905</v>
       </c>
@@ -6216,8 +6929,14 @@
       <c r="O119">
         <v>341.76573000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P119">
+        <v>87</v>
+      </c>
+      <c r="Q119">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>201210782</v>
       </c>
@@ -6263,8 +6982,14 @@
       <c r="O120">
         <v>357.82587000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P120">
+        <v>66</v>
+      </c>
+      <c r="Q120">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>205410265</v>
       </c>
@@ -6310,8 +7035,14 @@
       <c r="O121">
         <v>372.15622999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P121">
+        <v>65</v>
+      </c>
+      <c r="Q121">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>301410027</v>
       </c>
@@ -6357,8 +7088,14 @@
       <c r="O122">
         <v>344.58774</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P122">
+        <v>20</v>
+      </c>
+      <c r="Q122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>301390049</v>
       </c>
@@ -6404,8 +7141,14 @@
       <c r="O123">
         <v>350.87588</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P123">
+        <v>9</v>
+      </c>
+      <c r="Q123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>206111951</v>
       </c>
@@ -6451,8 +7194,14 @@
       <c r="O124">
         <v>348.52134999999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P124">
+        <v>20</v>
+      </c>
+      <c r="Q124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>203210758</v>
       </c>
@@ -6498,8 +7247,14 @@
       <c r="O125">
         <v>370.57141999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P125">
+        <v>157</v>
+      </c>
+      <c r="Q125">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>200290164</v>
       </c>
@@ -6545,8 +7300,14 @@
       <c r="O126">
         <v>355.43765999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P126">
+        <v>85</v>
+      </c>
+      <c r="Q126">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>300410579</v>
       </c>
@@ -6592,8 +7353,14 @@
       <c r="O127">
         <v>319.99324000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P127">
+        <v>31</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>201410462</v>
       </c>
@@ -6639,8 +7406,14 @@
       <c r="O128">
         <v>365.7921</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P128">
+        <v>142</v>
+      </c>
+      <c r="Q128">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>200790489</v>
       </c>
@@ -6686,8 +7459,14 @@
       <c r="O129">
         <v>327.45211</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P129">
+        <v>22</v>
+      </c>
+      <c r="Q129">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>206410650</v>
       </c>
@@ -6733,8 +7512,14 @@
       <c r="O130">
         <v>361.03816</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P130">
+        <v>106</v>
+      </c>
+      <c r="Q130">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>203010178</v>
       </c>
@@ -6780,8 +7565,14 @@
       <c r="O131">
         <v>324.98347000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P131">
+        <v>7</v>
+      </c>
+      <c r="Q131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>203111193</v>
       </c>
@@ -6827,8 +7618,14 @@
       <c r="O132">
         <v>326.3501</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P132">
+        <v>3</v>
+      </c>
+      <c r="Q132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>201010254</v>
       </c>
@@ -6874,8 +7671,14 @@
       <c r="O133">
         <v>355.22778</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P133">
+        <v>161</v>
+      </c>
+      <c r="Q133">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>203110256</v>
       </c>
@@ -6921,8 +7724,14 @@
       <c r="O134">
         <v>373.87988000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P134">
+        <v>158</v>
+      </c>
+      <c r="Q134">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>206011158</v>
       </c>
@@ -6968,8 +7777,14 @@
       <c r="O135">
         <v>368.80052999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P135">
+        <v>67</v>
+      </c>
+      <c r="Q135">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>201210604</v>
       </c>
@@ -7015,8 +7830,14 @@
       <c r="O136">
         <v>336.51170999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P136">
+        <v>27</v>
+      </c>
+      <c r="Q136">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>205810076</v>
       </c>
@@ -7062,8 +7883,14 @@
       <c r="O137">
         <v>318.22591999999997</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P137">
+        <v>3</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>207210358</v>
       </c>
@@ -7109,8 +7936,14 @@
       <c r="O138">
         <v>373.81592000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P138">
+        <v>117</v>
+      </c>
+      <c r="Q138">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>204810219</v>
       </c>
@@ -7156,8 +7989,14 @@
       <c r="O139">
         <v>418.78818000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P139">
+        <v>162</v>
+      </c>
+      <c r="Q139">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>200511717</v>
       </c>
@@ -7203,8 +8042,14 @@
       <c r="O140">
         <v>380.17003999999997</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P140">
+        <v>30</v>
+      </c>
+      <c r="Q140">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>201650184</v>
       </c>
@@ -7250,8 +8095,14 @@
       <c r="O141">
         <v>352.50677000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P141">
+        <v>110</v>
+      </c>
+      <c r="Q141">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>202410511</v>
       </c>
@@ -7297,8 +8148,14 @@
       <c r="O142">
         <v>348.07567</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P142">
+        <v>161</v>
+      </c>
+      <c r="Q142">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>201790217</v>
       </c>
@@ -7344,8 +8201,14 @@
       <c r="O143">
         <v>323.29771</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P143">
+        <v>16</v>
+      </c>
+      <c r="Q143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>109610049</v>
       </c>
@@ -7388,8 +8251,14 @@
       <c r="O144">
         <v>381.68524000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P144">
+        <v>30</v>
+      </c>
+      <c r="Q144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>300212259</v>
       </c>
@@ -7435,8 +8304,14 @@
       <c r="O145">
         <v>333.74979999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P145">
+        <v>15</v>
+      </c>
+      <c r="Q145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>201410286</v>
       </c>
@@ -7482,8 +8357,14 @@
       <c r="O146">
         <v>319.51925</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P146">
+        <v>19</v>
+      </c>
+      <c r="Q146">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>204950396</v>
       </c>
@@ -7529,8 +8410,14 @@
       <c r="O147">
         <v>346.80896000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P147">
+        <v>18</v>
+      </c>
+      <c r="Q147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>202910781</v>
       </c>
@@ -7576,8 +8463,14 @@
       <c r="O148">
         <v>349.39220999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P148">
+        <v>69</v>
+      </c>
+      <c r="Q148">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>203710708</v>
       </c>
@@ -7623,8 +8516,14 @@
       <c r="O149">
         <v>381.91032999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P149">
+        <v>133</v>
+      </c>
+      <c r="Q149">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>203710074</v>
       </c>
@@ -7670,8 +8569,14 @@
       <c r="O150">
         <v>331.47939000000002</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P150">
+        <v>3</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>200610278</v>
       </c>
@@ -7717,8 +8622,14 @@
       <c r="O151">
         <v>346.37342999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P151">
+        <v>68</v>
+      </c>
+      <c r="Q151">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>202910799</v>
       </c>
@@ -7764,8 +8675,14 @@
       <c r="O152">
         <v>361.42223999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P152">
+        <v>20</v>
+      </c>
+      <c r="Q152">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>200511559</v>
       </c>
@@ -7811,8 +8728,14 @@
       <c r="O153">
         <v>412.52458999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P153">
+        <v>95</v>
+      </c>
+      <c r="Q153">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>300710655</v>
       </c>
@@ -7858,8 +8781,14 @@
       <c r="O154">
         <v>318.23748000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P154">
+        <v>42</v>
+      </c>
+      <c r="Q154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>301390050</v>
       </c>
@@ -7905,8 +8834,14 @@
       <c r="O155">
         <v>332.38389999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P155">
+        <v>49</v>
+      </c>
+      <c r="Q155">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>300850195</v>
       </c>
@@ -7952,8 +8887,14 @@
       <c r="O156">
         <v>339.47091</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P156">
+        <v>76</v>
+      </c>
+      <c r="Q156">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>300211094</v>
       </c>
@@ -7999,8 +8940,14 @@
       <c r="O157">
         <v>313.63949000000002</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P157">
+        <v>15</v>
+      </c>
+      <c r="Q157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>203410077</v>
       </c>
@@ -8046,8 +8993,14 @@
       <c r="O158">
         <v>340.86075</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P158">
+        <v>81</v>
+      </c>
+      <c r="Q158">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>300513148</v>
       </c>
@@ -8093,8 +9046,14 @@
       <c r="O159">
         <v>344.40926999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P159">
+        <v>110</v>
+      </c>
+      <c r="Q159">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>300410773</v>
       </c>
@@ -8140,8 +9099,14 @@
       <c r="O160">
         <v>335.60764</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P160">
+        <v>53</v>
+      </c>
+      <c r="Q160">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>300110325</v>
       </c>
@@ -8187,8 +9152,14 @@
       <c r="O161">
         <v>340.18207999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P161">
+        <v>51</v>
+      </c>
+      <c r="Q161">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>204010015</v>
       </c>
@@ -8234,8 +9205,14 @@
       <c r="O162">
         <v>340.65125999999998</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P162">
+        <v>128</v>
+      </c>
+      <c r="Q162">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>206010503</v>
       </c>
@@ -8281,8 +9258,14 @@
       <c r="O163">
         <v>323.81249000000003</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P163">
+        <v>44</v>
+      </c>
+      <c r="Q163">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>201610415</v>
       </c>
@@ -8328,8 +9311,14 @@
       <c r="O164">
         <v>322.15341000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P164">
+        <v>40</v>
+      </c>
+      <c r="Q164">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>201110077</v>
       </c>
@@ -8375,8 +9364,14 @@
       <c r="O165">
         <v>337.19904000000002</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P165">
+        <v>70</v>
+      </c>
+      <c r="Q165">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>300190423</v>
       </c>
@@ -8422,8 +9417,14 @@
       <c r="O166">
         <v>341.56317000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P166">
+        <v>59</v>
+      </c>
+      <c r="Q166">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>200210573</v>
       </c>
@@ -8469,8 +9470,14 @@
       <c r="O167">
         <v>323.14922000000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P167">
+        <v>76</v>
+      </c>
+      <c r="Q167">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>204711069</v>
       </c>
@@ -8516,8 +9523,14 @@
       <c r="O168">
         <v>348.09014999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P168">
+        <v>89</v>
+      </c>
+      <c r="Q168">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>110910123</v>
       </c>
@@ -8563,8 +9576,14 @@
       <c r="O169">
         <v>341.90352000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P169">
+        <v>40</v>
+      </c>
+      <c r="Q169">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>206290205</v>
       </c>
@@ -8610,18 +9629,14 @@
       <c r="O170">
         <v>351.11155000000002</v>
       </c>
+      <c r="P170">
+        <v>59</v>
+      </c>
+      <c r="Q170">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O170" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="İZMİR EKONOMİ ÜNİVERSİTESİ"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O170">
-      <sortCondition descending="1" ref="N1:N170"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>